--- a/Excel/Libro de excel - Casos de prueba - Luisa Fernanda Espinal y Jose Manuel Jaramillo    (1) (1).xlsx
+++ b/Excel/Libro de excel - Casos de prueba - Luisa Fernanda Espinal y Jose Manuel Jaramillo    (1) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b12s308\Desktop\CalculadoraAhorroProgramado\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB36110-4645-44B4-83D8-97D0E84DAC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6883E9-65FD-428E-8E35-D296CD46FC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,30 +422,30 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -688,13 +688,13 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="D16" s="25">
         <v>800000</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="26">
@@ -1004,22 +1004,22 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="33">
         <v>200000</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="33">
         <v>3</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="33">
         <v>20000</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="33">
         <v>4</v>
       </c>
       <c r="G17" s="27" t="s">
@@ -1027,25 +1027,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="34">
         <v>200000</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <v>3</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="30">
         <v>-20000</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="30">
         <v>1</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="31" t="s">
         <v>27</v>
       </c>
     </row>
